--- a/Data/Modelo de Tabela.xlsx
+++ b/Data/Modelo de Tabela.xlsx
@@ -15,17 +15,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+  <si>
+    <t>Tabela do Paciente</t>
+  </si>
+  <si>
+    <t>Tabela dos Codons Resistetes</t>
+  </si>
+  <si>
+    <t>Tabela de Medicamento</t>
+  </si>
+  <si>
+    <t>Baby Step 01</t>
+  </si>
   <si>
     <t>IdPaciente</t>
   </si>
   <si>
+    <t>genotipo</t>
+  </si>
+  <si>
     <t>Posição</t>
   </si>
   <si>
     <t>Codón</t>
   </si>
   <si>
+    <t>Posicao</t>
+  </si>
+  <si>
     <t>Códon Resistente</t>
   </si>
   <si>
@@ -35,10 +53,16 @@
     <t>FrequenciaPop</t>
   </si>
   <si>
+    <t>Medicamento Resistente</t>
+  </si>
+  <si>
+    <t>Aminoácido</t>
+  </si>
+  <si>
     <t>Barreira Genética</t>
   </si>
   <si>
-    <t>P Mutacao</t>
+    <t>1b</t>
   </si>
   <si>
     <t>CTG</t>
@@ -51,6 +75,15 @@
   </si>
   <si>
     <t>0,42</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>Paciente</t>
@@ -67,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,21 +117,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,11 +130,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,97 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,181 +279,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +464,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,15 +487,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,11 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,30 +528,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,147 +546,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,14 +714,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1013,161 +1052,322 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.8" style="1"/>
+    <col min="1" max="2" width="9.1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.8" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.2" style="1" customWidth="1"/>
+    <col min="15" max="20" width="15" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1" style="2" customWidth="1"/>
+    <col min="22" max="22" width="6.9" style="2" customWidth="1"/>
+    <col min="23" max="23" width="6.1" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.8" style="1" customWidth="1"/>
+    <col min="27" max="28" width="14.8" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
+      <c r="X2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>28</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="1">
         <v>2.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
         <v>30</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
         <v>31</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <v>32</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
         <v>58</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
         <v>92</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1">
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="U1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1176,59 +1376,59 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="7.7" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="1"/>
+    <col min="3" max="13" width="14.8" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1240,6 +1440,17 @@
       </c>
       <c r="C2" s="1">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modelo de Tabela.xlsx
+++ b/Data/Modelo de Tabela.xlsx
@@ -10,17 +10,17 @@
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
     <sheet name="Baby Step 02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
-  <si>
-    <t>Tabela do Paciente</t>
-  </si>
-  <si>
-    <t>Tabela dos Codons Resistetes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+  <si>
+    <t>Tabela dos Pacientes</t>
+  </si>
+  <si>
+    <t>Tabela dos Codons Resistentes</t>
   </si>
   <si>
     <t>Tabela de Medicamento</t>
@@ -29,67 +29,79 @@
     <t>Baby Step 01</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>genotipo</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>Codón</t>
+  </si>
+  <si>
+    <t>Posicao</t>
+  </si>
+  <si>
+    <t>Códon Resistente</t>
+  </si>
+  <si>
+    <t>Codon Usage</t>
+  </si>
+  <si>
+    <t>FrequenciaPop</t>
+  </si>
+  <si>
+    <t>Medicamento Resistente</t>
+  </si>
+  <si>
+    <t>Aminoácido</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>0,56</t>
+  </si>
+  <si>
+    <t>0,42</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>IdPaciente</t>
   </si>
   <si>
-    <t>genotipo</t>
-  </si>
-  <si>
-    <t>Posição</t>
-  </si>
-  <si>
-    <t>Codón</t>
-  </si>
-  <si>
-    <t>Posicao</t>
-  </si>
-  <si>
-    <t>Códon Resistente</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>FrequenciaPop</t>
-  </si>
-  <si>
-    <t>Medicamento Resistente</t>
-  </si>
-  <si>
-    <t>Aminoácido</t>
+    <t>Medicamento</t>
   </si>
   <si>
     <t>Barreira Genética</t>
   </si>
   <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>CTG</t>
-  </si>
-  <si>
-    <t>ATG</t>
-  </si>
-  <si>
-    <t>0,56</t>
-  </si>
-  <si>
-    <t>0,42</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>Paciente</t>
-  </si>
-  <si>
-    <t>Medicamento</t>
   </si>
   <si>
     <t>P Mutacao Global</t>
@@ -100,9 +112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -122,6 +134,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -138,23 +157,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +180,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,83 +255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +285,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +503,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,6 +523,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +559,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,180 +576,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +737,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1052,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1064,51 +1073,45 @@
     <col min="3" max="3" width="6.9" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.1" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.8" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.2" style="1" customWidth="1"/>
-    <col min="15" max="20" width="15" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.9" style="2" customWidth="1"/>
-    <col min="23" max="23" width="6.1" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.8" style="1" customWidth="1"/>
-    <col min="27" max="28" width="14.8" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.8" style="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.8" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.2" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.9" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.1" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.7" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.8" style="1" customWidth="1"/>
+    <col min="24" max="25" width="14.8" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="U1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1122,172 +1125,227 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="M3" s="2">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>28</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>2.5</v>
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2">
         <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.5</v>
+      </c>
       <c r="Y4" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1295,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1309,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1323,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1337,36 +1395,38 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="W10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1392,43 +1452,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Data/Modelo de Tabela.xlsx
+++ b/Data/Modelo de Tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
     <sheet name="Baby Step 02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -111,13 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,152 +119,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,194 +133,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -478,255 +142,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,58 +164,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1055,61 +436,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.9" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.2" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.9" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.1" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.7" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="12.8" style="1" customWidth="1"/>
-    <col min="24" max="25" width="14.8" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.8" style="1"/>
+    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
@@ -1151,16 +547,21 @@
       <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1291,11 +692,11 @@
       <c r="X4" s="1">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1347,8 +748,9 @@
       <c r="X5" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1362,7 +764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1376,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1390,7 +792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1404,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1421,33 +823,31 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7" style="1" customWidth="1"/>
-    <col min="3" max="13" width="14.8" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.8" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1491,7 +891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1502,7 +902,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1515,6 +915,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Modelo de Tabela.xlsx
+++ b/Data/Modelo de Tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -838,15 +838,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>

--- a/Data/Modelo de Tabela.xlsx
+++ b/Data/Modelo de Tabela.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MasterDegreeHCV\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Tabela dos Pacientes</t>
   </si>
@@ -27,9 +32,6 @@
   </si>
   <si>
     <t>Baby Step 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>genotipo</t>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -179,6 +181,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,41 +446,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -509,46 +514,46 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -558,7 +563,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -566,65 +571,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="2">
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -632,62 +637,62 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="X4" s="1">
         <v>2.5</v>
@@ -701,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -716,13 +721,13 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -731,19 +736,19 @@
         <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="X5" s="1">
         <v>2.5</v>
@@ -755,13 +760,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -769,13 +774,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -783,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -797,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -811,13 +816,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W10" s="4"/>
     </row>
@@ -835,60 +840,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13">
